--- a/ValueSet-complaint-intensity.xlsx
+++ b/ValueSet-complaint-intensity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T17:20:00+00:00</t>
+    <t>2021-10-12T17:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-complaint-intensity.xlsx
+++ b/ValueSet-complaint-intensity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T17:32:20+00:00</t>
+    <t>2021-10-12T18:03:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-complaint-intensity.xlsx
+++ b/ValueSet-complaint-intensity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T21:31:05+00:00</t>
+    <t>2021-10-13T21:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-complaint-intensity.xlsx
+++ b/ValueSet-complaint-intensity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T21:39:19+00:00</t>
+    <t>2021-10-15T12:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-complaint-intensity.xlsx
+++ b/ValueSet-complaint-intensity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-15T12:18:04+00:00</t>
+    <t>2021-10-19T07:51:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-complaint-intensity.xlsx
+++ b/ValueSet-complaint-intensity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T07:51:56+00:00</t>
+    <t>2021-10-19T09:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-complaint-intensity.xlsx
+++ b/ValueSet-complaint-intensity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T09:50:53+00:00</t>
+    <t>2021-10-19T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-complaint-intensity.xlsx
+++ b/ValueSet-complaint-intensity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T15:41:32+00:00</t>
+    <t>2021-10-19T21:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-complaint-intensity.xlsx
+++ b/ValueSet-complaint-intensity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T21:05:56+00:00</t>
+    <t>2021-10-19T21:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-complaint-intensity.xlsx
+++ b/ValueSet-complaint-intensity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T21:09:33+00:00</t>
+    <t>2021-10-19T21:35:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
